--- a/data/trans_dic/P21B_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R2-Habitat-trans_dic.xlsx
@@ -709,37 +709,37 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.007106897883107526</v>
+        <v>0.007120545074369838</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02552254007204709</v>
+        <v>0.02475821273094214</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004838392507498743</v>
+        <v>0.004766519318194837</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02299257333669184</v>
+        <v>0.02012190583382711</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01526662265353769</v>
+        <v>0.01374301132698144</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008988316889886579</v>
+        <v>0.00890777377405972</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01557390005380674</v>
+        <v>0.01511192413293197</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02690834985456689</v>
+        <v>0.02712327339661736</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.08610050670379725</v>
+        <v>0.07762041361575266</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06798598817934484</v>
+        <v>0.04996365360299831</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1732764117112011</v>
+        <v>0.1758828718623351</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.031485498356166</v>
+        <v>0.03156160823135203</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04021766921783287</v>
+        <v>0.04110958480740733</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1016587780500916</v>
+        <v>0.1005612996254701</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06505023810497515</v>
+        <v>0.06251797507749775</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01886787978720829</v>
+        <v>0.01735711799413711</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04538243371478003</v>
+        <v>0.05061944285300007</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0628609983633136</v>
+        <v>0.06500093636777685</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09485422501806183</v>
+        <v>0.09965903983278153</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.04426575036954893</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05341440682769289</v>
+        <v>0.05341440682769288</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02151170531147028</v>
@@ -829,7 +829,7 @@
         <v>0.06738934474527776</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0487292431296637</v>
+        <v>0.04872924312966372</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00564847890099494</v>
+        <v>0.005456804407040231</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004913144621681999</v>
+        <v>0.005079530120404766</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05504737439757212</v>
+        <v>0.05541038393621293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02187980073715615</v>
+        <v>0.02294242920624458</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01005298892617743</v>
+        <v>0.009189639720587818</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02089367389695066</v>
+        <v>0.02248122671717695</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03363802756449993</v>
+        <v>0.03306198543346577</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0109260013394096</v>
+        <v>0.01069681192367357</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003959303013352605</v>
+        <v>0.003852747298848098</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04389034927947204</v>
+        <v>0.04329678906111356</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03176288726066643</v>
+        <v>0.03174023178881574</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04520595356818356</v>
+        <v>0.04484379890532932</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04798889256645099</v>
+        <v>0.04794372330216835</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1584590898373184</v>
+        <v>0.1525493649140159</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07899196927245337</v>
+        <v>0.07608203422804129</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0532691564291574</v>
+        <v>0.05097392957302767</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01980106561051212</v>
+        <v>0.01697499543851591</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08134424852317465</v>
+        <v>0.08163382125575125</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08877051791651151</v>
+        <v>0.08370438420415499</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0408024535274507</v>
+        <v>0.03951630157940099</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02370703567831497</v>
+        <v>0.02320535742466501</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09869772737617975</v>
+        <v>0.09813946164601167</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07082318870853013</v>
+        <v>0.07183918531433921</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03877773187636863</v>
+        <v>0.04162271315344449</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01027110342080155</v>
+        <v>0.01054168723302896</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02387267985252897</v>
+        <v>0.02428068553511906</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05557824431191147</v>
+        <v>0.05449570759529028</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02185031580637925</v>
+        <v>0.02121860753370444</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01916879380743873</v>
+        <v>0.01935506871329831</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04455576668624533</v>
+        <v>0.05048258627846947</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07399478515761566</v>
+        <v>0.07292442818593704</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03739711307682073</v>
+        <v>0.03895429209708882</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01814740864544394</v>
+        <v>0.01845469830875488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04492122532992329</v>
+        <v>0.04493133739510664</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07361397146590279</v>
+        <v>0.07739206289032192</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1564469053856114</v>
+        <v>0.1610760423708817</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05720940821804342</v>
+        <v>0.05854447075944489</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1080223554859852</v>
+        <v>0.1089783923485612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1571197391473598</v>
+        <v>0.1605770714809924</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08850314235082862</v>
+        <v>0.08572055054445377</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07950669747542841</v>
+        <v>0.07743348483916855</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1402154729560781</v>
+        <v>0.1469371440217891</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1676157613768998</v>
+        <v>0.1565756345935908</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09720421305410576</v>
+        <v>0.1007226894302036</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05668220544418028</v>
+        <v>0.05824700264194576</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1124372910468701</v>
+        <v>0.1110946262069673</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1396188097854268</v>
+        <v>0.1418494924938306</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03189806834195384</v>
+        <v>0.0297174392256106</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005951595761594907</v>
+        <v>0.005876523323620077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04278327868250191</v>
+        <v>0.04151479859712811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07421678057639043</v>
+        <v>0.07549786190086294</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01617065649346083</v>
+        <v>0.01637770232185514</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04107087189972847</v>
+        <v>0.04258132645716189</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05943934298084938</v>
+        <v>0.05815116442887572</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07575663844068389</v>
+        <v>0.07463704646986646</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02788259571957029</v>
+        <v>0.02735266654067113</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03162756942541189</v>
+        <v>0.03292641371245942</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06255893775703399</v>
+        <v>0.06153742313597574</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08352928761852495</v>
+        <v>0.0824984875057644</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1183255768636151</v>
+        <v>0.1152126665398752</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05111327248797405</v>
+        <v>0.05570038732185031</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1348507684134844</v>
+        <v>0.1325518166366969</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1651888830998552</v>
+        <v>0.1685508442573524</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06374080978244459</v>
+        <v>0.0709459256903147</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1126224982055561</v>
+        <v>0.1134745507308189</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1422869249094184</v>
+        <v>0.1398231266698761</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1408702700959771</v>
+        <v>0.1387536324124475</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07027820157006841</v>
+        <v>0.07290051577922876</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07833376633211793</v>
+        <v>0.08210445154712501</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1245992472197687</v>
+        <v>0.1256001931258931</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1343645664854358</v>
+        <v>0.1371047609043262</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.06869625946945786</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07886695338295806</v>
+        <v>0.07886695338295807</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02603601084082386</v>
+        <v>0.02590721971762633</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01300439658371371</v>
+        <v>0.01293583981262885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04683941661010241</v>
+        <v>0.04659887154030128</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0586000302575059</v>
+        <v>0.05989991176355455</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.018119575973326</v>
+        <v>0.01780940469464522</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02109730228790237</v>
+        <v>0.02132642387888497</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05504462336153558</v>
+        <v>0.05199403007194808</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06362794223112297</v>
+        <v>0.06302352573479365</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02475921578349058</v>
+        <v>0.02529432169298651</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02026123366297808</v>
+        <v>0.01961046531347498</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0556670160022954</v>
+        <v>0.05430354425677739</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0662552709041821</v>
+        <v>0.06626655747782063</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06423492086587394</v>
+        <v>0.06134412784049822</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0367676811902572</v>
+        <v>0.03707227894440235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09285309370122723</v>
+        <v>0.09326668972055564</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1031419170641118</v>
+        <v>0.1033260661842485</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04216812618822973</v>
+        <v>0.04243338188217155</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04456639774609691</v>
+        <v>0.04434689993448704</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0959491762745763</v>
+        <v>0.09057258011929302</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0971761782373536</v>
+        <v>0.096481061210739</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04555578710690705</v>
+        <v>0.04650979204071869</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03783198358219134</v>
+        <v>0.03589959312576688</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08454582199238801</v>
+        <v>0.08328989273786</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09247467934834987</v>
+        <v>0.09378406919485396</v>
       </c>
     </row>
     <row r="19">
@@ -1597,37 +1597,37 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3536</v>
+        <v>3430</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3178</v>
+        <v>2781</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2346</v>
+        <v>2112</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3009</v>
+        <v>2982</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3740</v>
+        <v>3629</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7863</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="7">
@@ -1639,37 +1639,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>12177</v>
+        <v>10977</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6932</v>
+        <v>5094</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>24004</v>
+        <v>24365</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4285</v>
+        <v>4295</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7778</v>
+        <v>7950</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14050</v>
+        <v>13898</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9997</v>
+        <v>9608</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4696</v>
+        <v>4320</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>15194</v>
+        <v>16948</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15097</v>
+        <v>15611</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>27718</v>
+        <v>29122</v>
       </c>
     </row>
     <row r="8">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1048</v>
+        <v>1013</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1125</v>
+        <v>1163</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9446</v>
+        <v>9508</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5128</v>
+        <v>5377</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2854</v>
+        <v>2609</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4427</v>
+        <v>4763</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8770</v>
+        <v>8619</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5130</v>
+        <v>5023</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2091</v>
+        <v>2035</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16831</v>
+        <v>16603</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>15725</v>
+        <v>15714</v>
       </c>
     </row>
     <row r="11">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8391</v>
+        <v>8324</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10985</v>
+        <v>10975</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27190</v>
+        <v>26176</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18513</v>
+        <v>17831</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15125</v>
+        <v>14473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5927</v>
+        <v>5081</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17235</v>
+        <v>17296</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23143</v>
+        <v>21822</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>19159</v>
+        <v>18555</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>12523</v>
+        <v>12258</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>37847</v>
+        <v>37633</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>35063</v>
+        <v>35566</v>
       </c>
     </row>
     <row r="12">
@@ -1952,40 +1952,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4795</v>
+        <v>5147</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1868</v>
+        <v>1917</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3012</v>
+        <v>3064</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8492</v>
+        <v>8327</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3857</v>
+        <v>3746</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4946</v>
+        <v>4994</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6830</v>
+        <v>7738</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16129</v>
+        <v>15895</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11226</v>
+        <v>11694</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7982</v>
+        <v>8117</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12554</v>
+        <v>12557</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>27294</v>
+        <v>28695</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19345</v>
+        <v>19918</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10402</v>
+        <v>10645</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13631</v>
+        <v>13752</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24008</v>
+        <v>24536</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15624</v>
+        <v>15133</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20514</v>
+        <v>19979</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21493</v>
+        <v>22523</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36535</v>
+        <v>34129</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29180</v>
+        <v>30236</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>24931</v>
+        <v>25619</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>31423</v>
+        <v>31048</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>51767</v>
+        <v>52594</v>
       </c>
     </row>
     <row r="16">
@@ -2132,40 +2132,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4351</v>
+        <v>4053</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6491</v>
+        <v>6299</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15346</v>
+        <v>15610</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3678</v>
+        <v>3725</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9308</v>
+        <v>9650</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14618</v>
+        <v>14302</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>22906</v>
+        <v>22568</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10145</v>
+        <v>9952</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>11958</v>
+        <v>12449</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24878</v>
+        <v>24471</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>42528</v>
+        <v>42003</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16139</v>
+        <v>15714</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7741</v>
+        <v>8436</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20461</v>
+        <v>20112</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34155</v>
+        <v>34851</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14497</v>
+        <v>16136</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25523</v>
+        <v>25716</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>34994</v>
+        <v>34388</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>42595</v>
+        <v>41955</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25570</v>
+        <v>26524</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>29616</v>
+        <v>31042</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>49549</v>
+        <v>49947</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>68410</v>
+        <v>69805</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14540</v>
+        <v>14468</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9150</v>
+        <v>9102</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25830</v>
+        <v>25698</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>42922</v>
+        <v>43874</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14931</v>
+        <v>14675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>20619</v>
+        <v>20843</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>41245</v>
+        <v>38959</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>59475</v>
+        <v>58910</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>34228</v>
+        <v>34968</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>34058</v>
+        <v>32964</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>72410</v>
+        <v>70637</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>110460</v>
+        <v>110479</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35872</v>
+        <v>34257</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25870</v>
+        <v>26084</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51205</v>
+        <v>51434</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>75547</v>
+        <v>75682</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>34747</v>
+        <v>34965</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>43557</v>
+        <v>43342</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>71895</v>
+        <v>67866</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>90833</v>
+        <v>90184</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>62979</v>
+        <v>64298</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>63594</v>
+        <v>60345</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>109975</v>
+        <v>108341</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>154173</v>
+        <v>156356</v>
       </c>
     </row>
     <row r="24">
